--- a/data/trans_orig/Q5402-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5402-Provincia-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5483</v>
+        <v>5672</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04884766386408713</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.154946839349995</v>
+        <v>0.1602842857095295</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6567</v>
+        <v>5696</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02979864508721598</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1674051916348316</v>
+        <v>0.145203797910413</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -786,19 +786,19 @@
         <v>2898</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8406</v>
+        <v>7782</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0388322899747512</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01079997751667699</v>
+        <v>0.01081409639074117</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1126582756296497</v>
+        <v>0.1042990273698533</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>3602</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8078</v>
+        <v>7518</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1017887808472249</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02529202956614507</v>
+        <v>0.02547555751866704</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2282702114594257</v>
+        <v>0.2124701198455775</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -836,19 +836,19 @@
         <v>3382</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8092</v>
+        <v>8155</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08619806263031002</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02446085827387843</v>
+        <v>0.02481408811074971</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.20625611167307</v>
+        <v>0.2078691953469045</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -857,19 +857,19 @@
         <v>6984</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3113</v>
+        <v>3122</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13466</v>
+        <v>13618</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09359167243052929</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04171980037524809</v>
+        <v>0.04183641152321508</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1804702235878364</v>
+        <v>0.1825092522853974</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>30056</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25101</v>
+        <v>25360</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>33511</v>
+        <v>32944</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.849363555288688</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7093585838832505</v>
+        <v>0.7166802918970712</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9470224041426548</v>
+        <v>0.9309884024666264</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -907,19 +907,19 @@
         <v>34680</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28933</v>
+        <v>29211</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>38031</v>
+        <v>38056</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.884003292282474</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7375159551933238</v>
+        <v>0.7446003955892225</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9694131472105347</v>
+        <v>0.9700525456046382</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>66</v>
@@ -928,19 +928,19 @@
         <v>64736</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>56792</v>
+        <v>57436</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>69408</v>
+        <v>69676</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8675760375947195</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7611072444586457</v>
+        <v>0.7697479673476038</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9301909637983612</v>
+        <v>0.9337820653777043</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>3946</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9303</v>
+        <v>9309</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05919463114842122</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01481736374777359</v>
+        <v>0.01493921361221417</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1395776361575417</v>
+        <v>0.1396631190758174</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1053,19 +1053,19 @@
         <v>6241</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2225</v>
+        <v>2252</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12749</v>
+        <v>12269</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06376769493979598</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02273372982123556</v>
+        <v>0.02300422551705768</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1302559005125453</v>
+        <v>0.1253524418565445</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -1074,19 +1074,19 @@
         <v>10187</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5015</v>
+        <v>5155</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17855</v>
+        <v>17621</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06191504986896063</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03048229010299807</v>
+        <v>0.03133002620740012</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1085213601716491</v>
+        <v>0.1070993422516026</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>8610</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3978</v>
+        <v>3916</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15703</v>
+        <v>15725</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.129177946842469</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05967811641285974</v>
+        <v>0.05875489880958214</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2355893685762709</v>
+        <v>0.2359244827406997</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8384</v>
+        <v>6917</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02167032546146457</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08566454416122955</v>
+        <v>0.07067362291086589</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -1145,19 +1145,19 @@
         <v>10731</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5454</v>
+        <v>5042</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>19695</v>
+        <v>19073</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06522394157423576</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03315178800097588</v>
+        <v>0.03064506307367989</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1197078087876312</v>
+        <v>0.1159225172805525</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>54098</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46295</v>
+        <v>46739</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59620</v>
+        <v>59716</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8116274220091098</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6945573120038656</v>
+        <v>0.7012119979970762</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8944680899244291</v>
+        <v>0.8959066091225689</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>88</v>
@@ -1195,19 +1195,19 @@
         <v>89513</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>82038</v>
+        <v>82412</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>93848</v>
+        <v>93954</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9145619795987394</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8381887567030539</v>
+        <v>0.8420177569675055</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9588553284804162</v>
+        <v>0.9599428981417513</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>141</v>
@@ -1216,19 +1216,19 @@
         <v>143611</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>133033</v>
+        <v>134714</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>150506</v>
+        <v>151732</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8728610085568036</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8085698710283917</v>
+        <v>0.8187858771909236</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9147690653115035</v>
+        <v>0.922223126109476</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5867</v>
+        <v>5762</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03753273606965672</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1151718446170389</v>
+        <v>0.1131075526073478</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1341,19 +1341,19 @@
         <v>5737</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2257</v>
+        <v>2246</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12416</v>
+        <v>12421</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06868719402913349</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02702549861455842</v>
+        <v>0.02689598112257028</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1486527112578567</v>
+        <v>0.1487204322906061</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -1362,19 +1362,19 @@
         <v>7649</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3281</v>
+        <v>3336</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14472</v>
+        <v>13963</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05688451633777517</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02439773419942293</v>
+        <v>0.02481004657752693</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1076294236886413</v>
+        <v>0.1038466759228239</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>2711</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>847</v>
+        <v>860</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7306</v>
+        <v>6680</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05322058443794017</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01663243158754369</v>
+        <v>0.01688024064177964</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1434217526883363</v>
+        <v>0.1311290261665008</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1412,19 +1412,19 @@
         <v>6503</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2872</v>
+        <v>2235</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13125</v>
+        <v>12758</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07786178527404888</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03438608545123625</v>
+        <v>0.02676203465053691</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1571509563071649</v>
+        <v>0.1527569349012963</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1433,19 +1433,19 @@
         <v>9214</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4391</v>
+        <v>5009</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17002</v>
+        <v>17831</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06852661559223605</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03265464647033996</v>
+        <v>0.03725030641810492</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1264451924248584</v>
+        <v>0.1326109266088066</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>46317</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>41437</v>
+        <v>41007</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49200</v>
+        <v>49136</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9092466794924031</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8134464036418998</v>
+        <v>0.8050150040377879</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9658458075094193</v>
+        <v>0.9645923830436235</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>71</v>
@@ -1483,19 +1483,19 @@
         <v>71281</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>63441</v>
+        <v>63196</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>76941</v>
+        <v>77057</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8534510206968177</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7595792508287499</v>
+        <v>0.7566477088342771</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9212207077439505</v>
+        <v>0.9226066132899734</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>119</v>
@@ -1504,19 +1504,19 @@
         <v>117598</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>108624</v>
+        <v>108076</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>124241</v>
+        <v>123934</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8745888680699888</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8078456635462129</v>
+        <v>0.8037711409013988</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9239929273263197</v>
+        <v>0.9217130537378104</v>
       </c>
     </row>
     <row r="15">
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6167</v>
+        <v>6162</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03196214328748476</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1118868890140259</v>
+        <v>0.1117931654578007</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1629,19 +1629,19 @@
         <v>4375</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1123</v>
+        <v>1107</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10280</v>
+        <v>10751</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05887274817614983</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01510819616602077</v>
+        <v>0.01490080481270921</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1383353304217535</v>
+        <v>0.144665968348991</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1650,19 +1650,19 @@
         <v>6137</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2217</v>
+        <v>2194</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11989</v>
+        <v>12536</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04741245173641866</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01712659512742518</v>
+        <v>0.01694744038799005</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09262394689808802</v>
+        <v>0.09685306491374072</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>4519</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1674</v>
+        <v>1720</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9356</v>
+        <v>9373</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08197715196649548</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0303656282034469</v>
+        <v>0.03119629888903663</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1697254462435068</v>
+        <v>0.1700401636859935</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -1700,19 +1700,19 @@
         <v>9467</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4439</v>
+        <v>4969</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16384</v>
+        <v>16366</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1273909211102232</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05973021966948866</v>
+        <v>0.06686318960356269</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2204676254889742</v>
+        <v>0.2202268817107267</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -1721,19 +1721,19 @@
         <v>13986</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8122</v>
+        <v>7983</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22392</v>
+        <v>22453</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1080507665880239</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06275076573677546</v>
+        <v>0.06167194997737108</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1729993512269669</v>
+        <v>0.1734643294465614</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>48841</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>43122</v>
+        <v>43155</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>52469</v>
+        <v>52367</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8860607047460197</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7823015677325962</v>
+        <v>0.7828935566303773</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9518672216679234</v>
+        <v>0.9500288305177929</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>64</v>
@@ -1771,19 +1771,19 @@
         <v>60471</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>52210</v>
+        <v>53286</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>66289</v>
+        <v>66829</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8137363307136269</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7025741591273552</v>
+        <v>0.7170536169039829</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8920278907187571</v>
+        <v>0.8992940933808665</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>117</v>
@@ -1792,19 +1792,19 @@
         <v>109313</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>99839</v>
+        <v>100455</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>116505</v>
+        <v>116380</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8445367816755575</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7713414123649617</v>
+        <v>0.7760947225103646</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9000965944187834</v>
+        <v>0.8991353098352832</v>
       </c>
     </row>
     <row r="19">
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5564</v>
+        <v>5224</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05915187846860282</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1895790056040021</v>
+        <v>0.1780088926759257</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1917,19 +1917,19 @@
         <v>4329</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1146</v>
+        <v>1129</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9362</v>
+        <v>9431</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1049609331926391</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02778174687929317</v>
+        <v>0.02736200858667851</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2269714332091126</v>
+        <v>0.2286467022358353</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -1938,19 +1938,19 @@
         <v>6065</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2275</v>
+        <v>2503</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11373</v>
+        <v>12071</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08591706209095154</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03223118515933768</v>
+        <v>0.03545895621172637</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1611040588569043</v>
+        <v>0.1709900605803517</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>6035</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2612</v>
+        <v>2672</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10596</v>
+        <v>10961</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.205652094185687</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08899087462366971</v>
+        <v>0.09104499305136289</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3610524551530183</v>
+        <v>0.3735018880140091</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -1988,19 +1988,19 @@
         <v>3925</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>953</v>
+        <v>935</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9188</v>
+        <v>9048</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09516397101502136</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02311398581253292</v>
+        <v>0.02267287667475631</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2227660241498809</v>
+        <v>0.2193749478228089</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>11</v>
@@ -2009,19 +2009,19 @@
         <v>9960</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>5518</v>
+        <v>5375</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>16775</v>
+        <v>16968</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1410964092328633</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07816052116438615</v>
+        <v>0.07614631080109258</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2376305606355373</v>
+        <v>0.2403581810507412</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>21576</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16898</v>
+        <v>16600</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25564</v>
+        <v>25117</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7351960273457102</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5758058668841076</v>
+        <v>0.5656332141565238</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8710820215709334</v>
+        <v>0.8558596597105934</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -2059,19 +2059,19 @@
         <v>32992</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27204</v>
+        <v>27054</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>37410</v>
+        <v>37460</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7998750957923395</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6595668675463153</v>
+        <v>0.6559064700793821</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9069974012326633</v>
+        <v>0.9082162886072418</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>56</v>
@@ -2080,19 +2080,19 @@
         <v>54567</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>46755</v>
+        <v>47641</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>60574</v>
+        <v>60747</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7729865286761852</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6623201190452251</v>
+        <v>0.6748644036873654</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8580680527540316</v>
+        <v>0.8605220609680373</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>5598</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1937</v>
+        <v>1893</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11032</v>
+        <v>10489</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1186062380503493</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04104326448250659</v>
+        <v>0.0401060507527395</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2337390450384237</v>
+        <v>0.222242727246973</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -2205,19 +2205,19 @@
         <v>5862</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2204</v>
+        <v>2120</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12434</v>
+        <v>11908</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08337527203556434</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03135047977613804</v>
+        <v>0.03015464144971752</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1768543501161607</v>
+        <v>0.1693605331525375</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
@@ -2226,19 +2226,19 @@
         <v>11460</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5678</v>
+        <v>5943</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>18986</v>
+        <v>18629</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09752590982123584</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04832251954434865</v>
+        <v>0.05057714496752745</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1615743922354502</v>
+        <v>0.1585398492244207</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>5673</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1928</v>
+        <v>1895</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10578</v>
+        <v>10972</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1201940821059239</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04084355761489169</v>
+        <v>0.04015632313487309</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2241300073687365</v>
+        <v>0.2324814109128106</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6092</v>
+        <v>8182</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01963757009490986</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08664540739558732</v>
+        <v>0.1163681564542362</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -2297,19 +2297,19 @@
         <v>7053</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2878</v>
+        <v>2886</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13988</v>
+        <v>14055</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06002643646494461</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02449457128793867</v>
+        <v>0.02456395202781024</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.119039060905767</v>
+        <v>0.1196134867208065</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>35926</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>30030</v>
+        <v>30191</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>40645</v>
+        <v>41532</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7611996798437268</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6362804222746015</v>
+        <v>0.6396885496247737</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8612055213931287</v>
+        <v>0.8799827451607186</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>61</v>
@@ -2347,19 +2347,19 @@
         <v>63066</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>56077</v>
+        <v>56222</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>67443</v>
+        <v>67777</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8969871578695258</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7975789335935169</v>
+        <v>0.7996442252159139</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9592311739405436</v>
+        <v>0.9639911225993492</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>98</v>
@@ -2368,19 +2368,19 @@
         <v>98993</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>89948</v>
+        <v>90555</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>106426</v>
+        <v>105711</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8424476537138196</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7654769297948197</v>
+        <v>0.770645349031546</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9057029778175293</v>
+        <v>0.8996187064647461</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>2610</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>784</v>
+        <v>814</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6825</v>
+        <v>7011</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02463780012515411</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007401200264183313</v>
+        <v>0.007685120185063639</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06443467709301551</v>
+        <v>0.06619085292161286</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2493,19 +2493,19 @@
         <v>2917</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>884</v>
+        <v>895</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8311</v>
+        <v>8616</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02490625527830399</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007545207319452588</v>
+        <v>0.007643017530590365</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07096476191616312</v>
+        <v>0.07356531882624778</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -2514,19 +2514,19 @@
         <v>5527</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2044</v>
+        <v>1913</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>12031</v>
+        <v>11335</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0247787636351273</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009163405022856947</v>
+        <v>0.008578132470148592</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05393758061682671</v>
+        <v>0.05081945520028768</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>5385</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1857</v>
+        <v>1894</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12317</v>
+        <v>12481</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05083836975524856</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01753421133627755</v>
+        <v>0.01788189615492068</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1162753022122841</v>
+        <v>0.1178222040176893</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -2564,19 +2564,19 @@
         <v>9292</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4608</v>
+        <v>4763</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>16765</v>
+        <v>16553</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07933509784707826</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03934418230117526</v>
+        <v>0.04066566978448979</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1431434429826916</v>
+        <v>0.1413365431547332</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>14</v>
@@ -2585,19 +2585,19 @@
         <v>14677</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8998</v>
+        <v>8629</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>24094</v>
+        <v>24700</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06580175849054808</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04034078171647797</v>
+        <v>0.03868433078513015</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1080224948711257</v>
+        <v>0.1107367283037683</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>97933</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>91185</v>
+        <v>91099</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>102381</v>
+        <v>102168</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9245238301195974</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8608251566751841</v>
+        <v>0.8600064833002131</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9665105495515</v>
+        <v>0.9645069876463613</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>105</v>
@@ -2635,19 +2635,19 @@
         <v>104912</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>96712</v>
+        <v>97436</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>110419</v>
+        <v>110121</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8957586468746177</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8257415573608931</v>
+        <v>0.8319248595237481</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9427789728903113</v>
+        <v>0.9402337753618268</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>205</v>
@@ -2656,19 +2656,19 @@
         <v>202845</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>193561</v>
+        <v>192752</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>210266</v>
+        <v>210311</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9094194778743246</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8677952973239718</v>
+        <v>0.8641693901603119</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9426908632410873</v>
+        <v>0.9428905498911766</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>6869</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2812</v>
+        <v>2959</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>13530</v>
+        <v>13714</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.061384816465637</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02513152481463765</v>
+        <v>0.02644634132713371</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.120923045145428</v>
+        <v>0.1225648009535524</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -2781,19 +2781,19 @@
         <v>6338</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2344</v>
+        <v>2352</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>14204</v>
+        <v>14753</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04136684512752992</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01530019297787466</v>
+        <v>0.01535191374780361</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09270190470217256</v>
+        <v>0.09628411213792717</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>12</v>
@@ -2802,19 +2802,19 @@
         <v>13207</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>7224</v>
+        <v>7103</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>21669</v>
+        <v>21586</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04981540720886176</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02724710129081345</v>
+        <v>0.02679368827417808</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08173524084163022</v>
+        <v>0.08141993402199495</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>10582</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>6070</v>
+        <v>5888</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>18047</v>
+        <v>17588</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.09456963216869496</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05424413362228626</v>
+        <v>0.05262487338046202</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.161283583656703</v>
+        <v>0.1571879840040357</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>11</v>
@@ -2852,19 +2852,19 @@
         <v>12690</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>6536</v>
+        <v>6762</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>21917</v>
+        <v>21410</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.08281628637129447</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04265444602967825</v>
+        <v>0.04413408596366983</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1430396998135415</v>
+        <v>0.1397262996407116</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>23</v>
@@ -2873,19 +2873,19 @@
         <v>23271</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>15226</v>
+        <v>15347</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>33810</v>
+        <v>33849</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.08777677262414814</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.05743249843078348</v>
+        <v>0.05788685484887827</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1275269725845802</v>
+        <v>0.1276750409997842</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>94443</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>86279</v>
+        <v>86515</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>101267</v>
+        <v>100911</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8440455513656681</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.7710866417494341</v>
+        <v>0.7731982734148638</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9050334776424624</v>
+        <v>0.9018506911163031</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>128</v>
@@ -2923,19 +2923,19 @@
         <v>134197</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>124624</v>
+        <v>124340</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>142281</v>
+        <v>141994</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8758168685011756</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8133429836103649</v>
+        <v>0.8114833629991173</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9285762537119248</v>
+        <v>0.9267033575679988</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>225</v>
@@ -2944,19 +2944,19 @@
         <v>228640</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>215507</v>
+        <v>216847</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>239410</v>
+        <v>239610</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8624078201669901</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8128732541042505</v>
+        <v>0.817926861003379</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9030318470527963</v>
+        <v>0.9037880575922775</v>
       </c>
     </row>
     <row r="35">
@@ -3048,19 +3048,19 @@
         <v>26160</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>17471</v>
+        <v>18064</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>37184</v>
+        <v>36674</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05206300139523862</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03477001721795499</v>
+        <v>0.03595144618903784</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.07400348394523201</v>
+        <v>0.07298846737828409</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>34</v>
@@ -3069,19 +3069,19 @@
         <v>36969</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>26009</v>
+        <v>27254</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>51700</v>
+        <v>51046</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.05461966456545812</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0384275121515285</v>
+        <v>0.04026693873768514</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.07638450776187809</v>
+        <v>0.07541811319227922</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>62</v>
@@ -3090,19 +3090,19 @@
         <v>63129</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>49151</v>
+        <v>48456</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>80785</v>
+        <v>77673</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.05353035089442573</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.04167810869620627</v>
+        <v>0.04108812804599703</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.06850235725141078</v>
+        <v>0.06586340203735867</v>
       </c>
     </row>
     <row r="37">
@@ -3119,19 +3119,19 @@
         <v>47117</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>35659</v>
+        <v>35620</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>62012</v>
+        <v>61216</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.09377111102820263</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07096868829220887</v>
+        <v>0.07088950444861032</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1234143258421908</v>
+        <v>0.1218320866276909</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>45</v>
@@ -3140,19 +3140,19 @@
         <v>48760</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>36494</v>
+        <v>35756</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>62934</v>
+        <v>62581</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.07204010187718481</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05391732431456404</v>
+        <v>0.05282782131600264</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.09298183951982289</v>
+        <v>0.09246062615609922</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>95</v>
@@ -3161,19 +3161,19 @@
         <v>95877</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>77272</v>
+        <v>78134</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>115938</v>
+        <v>114224</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.08129900059691769</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06552347274605826</v>
+        <v>0.06625419810375258</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.09831023571546507</v>
+        <v>0.09685708885036873</v>
       </c>
     </row>
     <row r="38">
@@ -3190,19 +3190,19 @@
         <v>429189</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>412812</v>
+        <v>413377</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>444460</v>
+        <v>443809</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8541658875765588</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8215713516615216</v>
+        <v>0.8226969055328243</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8845577860761304</v>
+        <v>0.8832611003337763</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>582</v>
@@ -3211,19 +3211,19 @@
         <v>591113</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>570940</v>
+        <v>572975</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>606831</v>
+        <v>608287</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8733402335573571</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8435352223592212</v>
+        <v>0.8465423608250856</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8965619276838305</v>
+        <v>0.8987137934524398</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1027</v>
@@ -3232,19 +3232,19 @@
         <v>1020303</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>996419</v>
+        <v>994755</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1043965</v>
+        <v>1043104</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8651706485086565</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.844918244951911</v>
+        <v>0.8435075339140933</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8852352423416595</v>
+        <v>0.8845051236135916</v>
       </c>
     </row>
     <row r="39">
@@ -3580,19 +3580,19 @@
         <v>4890</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1048</v>
+        <v>1865</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10364</v>
+        <v>10877</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1104210247208117</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02366574927745432</v>
+        <v>0.04212056768149273</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2340479558715761</v>
+        <v>0.2456465003562993</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -3601,19 +3601,19 @@
         <v>6404</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2937</v>
+        <v>3057</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12963</v>
+        <v>12297</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1309845529404083</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06006198020158434</v>
+        <v>0.06252651907768308</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2651148254401833</v>
+        <v>0.2515095903110223</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -3622,19 +3622,19 @@
         <v>11294</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6054</v>
+        <v>6025</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19674</v>
+        <v>18787</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1212118675847922</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06497466151417161</v>
+        <v>0.0646626563135964</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2111457047964185</v>
+        <v>0.2016297048495012</v>
       </c>
     </row>
     <row r="5">
@@ -3651,19 +3651,19 @@
         <v>6618</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12144</v>
+        <v>12857</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1494602212868953</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0641237075144481</v>
+        <v>0.06406502748521588</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2742471323601565</v>
+        <v>0.2903468885905534</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -3672,19 +3672,19 @@
         <v>9558</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4409</v>
+        <v>4312</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15856</v>
+        <v>16307</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1954911293208518</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09016789762679446</v>
+        <v>0.08819432519562767</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3242948505582159</v>
+        <v>0.3335187254135072</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -3693,19 +3693,19 @@
         <v>16177</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9306</v>
+        <v>9308</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23819</v>
+        <v>24521</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.173615234481927</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09988002709499894</v>
+        <v>0.09989428240652148</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.255640516451915</v>
+        <v>0.2631753206171381</v>
       </c>
     </row>
     <row r="6">
@@ -3722,19 +3722,19 @@
         <v>32773</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26391</v>
+        <v>26176</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38116</v>
+        <v>37859</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.740118753992293</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5959856900564999</v>
+        <v>0.591145021587706</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8607809577228315</v>
+        <v>0.8549643625073041</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -3743,19 +3743,19 @@
         <v>32931</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25674</v>
+        <v>25450</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>39158</v>
+        <v>39233</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6735243177387399</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5251037158681239</v>
+        <v>0.5205094535328744</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8008655446758057</v>
+        <v>0.8024164130685222</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>60</v>
@@ -3764,19 +3764,19 @@
         <v>65704</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>55998</v>
+        <v>55623</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>73551</v>
+        <v>74282</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7051728979332808</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6009932621831436</v>
+        <v>0.5969773649382429</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7893883544598471</v>
+        <v>0.7972271856048527</v>
       </c>
     </row>
     <row r="7">
@@ -3868,19 +3868,19 @@
         <v>10644</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5098</v>
+        <v>5308</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19525</v>
+        <v>19372</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1343851287635484</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06436432491291029</v>
+        <v>0.0670204159824679</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2465172370563332</v>
+        <v>0.244583440958103</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -3889,19 +3889,19 @@
         <v>10984</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5470</v>
+        <v>5447</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19393</v>
+        <v>19326</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1075870312422827</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05358300128439016</v>
+        <v>0.05335631044744738</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1899576050773487</v>
+        <v>0.1892943141284832</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>18</v>
@@ -3910,19 +3910,19 @@
         <v>21628</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13292</v>
+        <v>13099</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33099</v>
+        <v>32634</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1192943191041628</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0733142213897689</v>
+        <v>0.07225195063943486</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1825705985260667</v>
+        <v>0.1800063370447059</v>
       </c>
     </row>
     <row r="9">
@@ -3939,19 +3939,19 @@
         <v>7546</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3089</v>
+        <v>2200</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17198</v>
+        <v>16831</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09528001015393006</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0390053459063654</v>
+        <v>0.02777066917023651</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2171341716143923</v>
+        <v>0.2125025201386444</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -3960,19 +3960,19 @@
         <v>10971</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5634</v>
+        <v>5627</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18967</v>
+        <v>18129</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1074613560501968</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05518413600149015</v>
+        <v>0.05511454958486513</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.185779821824338</v>
+        <v>0.1775698177243916</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>15</v>
@@ -3981,19 +3981,19 @@
         <v>18518</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10908</v>
+        <v>11080</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>30660</v>
+        <v>30622</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1021396901058305</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06016858145444125</v>
+        <v>0.06111312757475134</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1691165535482027</v>
+        <v>0.1689046984164584</v>
       </c>
     </row>
     <row r="10">
@@ -4010,19 +4010,19 @@
         <v>61013</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51334</v>
+        <v>51061</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68521</v>
+        <v>68600</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7703348610825216</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6481327924743043</v>
+        <v>0.6446860553207899</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8651259472208782</v>
+        <v>0.8661243753426063</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -4031,19 +4031,19 @@
         <v>80138</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>69708</v>
+        <v>70000</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87722</v>
+        <v>87976</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7849516127075206</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6827923926577045</v>
+        <v>0.6856470643867119</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8592371727249695</v>
+        <v>0.8617276800496729</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>129</v>
@@ -4052,19 +4052,19 @@
         <v>141151</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>127487</v>
+        <v>126573</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>152204</v>
+        <v>152248</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7785659907900067</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7031977866006157</v>
+        <v>0.6981577140197134</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8395314755780939</v>
+        <v>0.839777721692171</v>
       </c>
     </row>
     <row r="11">
@@ -4156,19 +4156,19 @@
         <v>8212</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3108</v>
+        <v>3231</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15685</v>
+        <v>15763</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1473253816497127</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05575380208134065</v>
+        <v>0.05796807037486625</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2813921351958257</v>
+        <v>0.2827925558461085</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -4177,19 +4177,19 @@
         <v>9786</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5336</v>
+        <v>5260</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16984</v>
+        <v>17039</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1223725763324217</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.066726853711084</v>
+        <v>0.06577676812463178</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2123812020004449</v>
+        <v>0.2130754163751789</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>16</v>
@@ -4198,19 +4198,19 @@
         <v>17998</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10628</v>
+        <v>11188</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>27445</v>
+        <v>27586</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1326218024048768</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07831066237759826</v>
+        <v>0.08243791286507281</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2022311741050449</v>
+        <v>0.2032692964165529</v>
       </c>
     </row>
     <row r="13">
@@ -4227,19 +4227,19 @@
         <v>5138</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10253</v>
+        <v>10698</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0921811720743751</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03541162138135367</v>
+        <v>0.03543381582546371</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1839285055459091</v>
+        <v>0.1919255832946691</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -4248,19 +4248,19 @@
         <v>7374</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3102</v>
+        <v>3210</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14489</v>
+        <v>13993</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09220978300959261</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03879449593540304</v>
+        <v>0.04014581950627444</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1811828354420948</v>
+        <v>0.1749827961604163</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -4269,19 +4269,19 @@
         <v>12512</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6560</v>
+        <v>6302</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20926</v>
+        <v>19634</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09219803122699903</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04833692278590764</v>
+        <v>0.04644065585761724</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1541936330468088</v>
+        <v>0.1446790140300371</v>
       </c>
     </row>
     <row r="14">
@@ -4298,19 +4298,19 @@
         <v>42391</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34611</v>
+        <v>34641</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>48756</v>
+        <v>48316</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7604934462759122</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.620908997366033</v>
+        <v>0.6214567129912688</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8746647749820173</v>
+        <v>0.8667865037629133</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>59</v>
@@ -4319,19 +4319,19 @@
         <v>62808</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>55116</v>
+        <v>54971</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>69904</v>
+        <v>69215</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7854176406579857</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6892214662047287</v>
+        <v>0.6874166959031424</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8741557381943137</v>
+        <v>0.8655390255424922</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>100</v>
@@ -4340,19 +4340,19 @@
         <v>105200</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>94236</v>
+        <v>93669</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>114119</v>
+        <v>114232</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7751801663681241</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6943957258033007</v>
+        <v>0.6902114075764487</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8409006421631233</v>
+        <v>0.8417394102490047</v>
       </c>
     </row>
     <row r="15">
@@ -4444,19 +4444,19 @@
         <v>7581</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3158</v>
+        <v>3289</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14628</v>
+        <v>14607</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1183967942067383</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04931440550924338</v>
+        <v>0.05137257547252908</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2284673478662485</v>
+        <v>0.2281395721046636</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -4465,19 +4465,19 @@
         <v>10754</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5438</v>
+        <v>5359</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18462</v>
+        <v>17686</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1256729597428547</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06354715326776268</v>
+        <v>0.06262819200797119</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2157380523498177</v>
+        <v>0.2066732737159465</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -4486,19 +4486,19 @@
         <v>18335</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11815</v>
+        <v>10956</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27771</v>
+        <v>27202</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1225588567976339</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07897495372018008</v>
+        <v>0.07323711996245945</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1856357003018041</v>
+        <v>0.181830141951989</v>
       </c>
     </row>
     <row r="17">
@@ -4515,19 +4515,19 @@
         <v>10689</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5370</v>
+        <v>5246</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17592</v>
+        <v>17958</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1669437629017905</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08387701716733301</v>
+        <v>0.08193206748866221</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2747614503248347</v>
+        <v>0.2804760741380565</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -4536,19 +4536,19 @@
         <v>8331</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4022</v>
+        <v>4007</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15225</v>
+        <v>15679</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09734918874636493</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0469998919514824</v>
+        <v>0.0468226871278817</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1779196813116505</v>
+        <v>0.1832159539835249</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>18</v>
@@ -4557,19 +4557,19 @@
         <v>19020</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10895</v>
+        <v>11472</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27313</v>
+        <v>28865</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1271347491865512</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07282854300075606</v>
+        <v>0.07668157874131885</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1825727896946134</v>
+        <v>0.1929429504969477</v>
       </c>
     </row>
     <row r="18">
@@ -4586,19 +4586,19 @@
         <v>45758</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>37524</v>
+        <v>38059</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>52323</v>
+        <v>52533</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7146594428914712</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5860575403294034</v>
+        <v>0.5944087552927277</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8171883260112265</v>
+        <v>0.8204672810884824</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>64</v>
@@ -4607,19 +4607,19 @@
         <v>66489</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>57585</v>
+        <v>58246</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>73052</v>
+        <v>73647</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7769778515107804</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6729296225961653</v>
+        <v>0.6806487587531481</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8536748717429853</v>
+        <v>0.8606270075136973</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>105</v>
@@ -4628,19 +4628,19 @@
         <v>112247</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>101035</v>
+        <v>100888</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>122094</v>
+        <v>123297</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7503063940158149</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6753614298969222</v>
+        <v>0.6743741047220769</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8161231255084616</v>
+        <v>0.82416608092008</v>
       </c>
     </row>
     <row r="19">
@@ -4732,19 +4732,19 @@
         <v>3348</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>998</v>
+        <v>1053</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8046</v>
+        <v>9138</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1059011917629047</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03157716774991626</v>
+        <v>0.03332466401872672</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2545087849874121</v>
+        <v>0.2890815526367497</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -4753,19 +4753,19 @@
         <v>6303</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2275</v>
+        <v>2185</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12244</v>
+        <v>11729</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1264222172935746</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04562840432234293</v>
+        <v>0.04381979833712181</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2455842406876377</v>
+        <v>0.235268266554968</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -4774,19 +4774,19 @@
         <v>9651</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5107</v>
+        <v>5116</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17579</v>
+        <v>17051</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1184593021284805</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0626887440471396</v>
+        <v>0.06280195335020898</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2157794459507551</v>
+        <v>0.2093052952445536</v>
       </c>
     </row>
     <row r="21">
@@ -4803,19 +4803,19 @@
         <v>3358</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1049</v>
+        <v>1058</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8817</v>
+        <v>8028</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1062165599914744</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03319400159942856</v>
+        <v>0.03346632262132528</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2789188775187603</v>
+        <v>0.2539466262726988</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -4824,19 +4824,19 @@
         <v>7183</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3002</v>
+        <v>3107</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13147</v>
+        <v>13375</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1440775585581337</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06021416655077014</v>
+        <v>0.06232315391514658</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2637104766827281</v>
+        <v>0.2682746651297198</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>10</v>
@@ -4845,19 +4845,19 @@
         <v>10541</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>5299</v>
+        <v>5455</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>17398</v>
+        <v>18342</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1293860939818887</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06504126881517144</v>
+        <v>0.06695459732988143</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2135586098815407</v>
+        <v>0.2251472086302031</v>
       </c>
     </row>
     <row r="22">
@@ -4874,19 +4874,19 @@
         <v>24907</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19655</v>
+        <v>18568</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28573</v>
+        <v>29227</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7878822482456209</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6217466833650414</v>
+        <v>0.5873571271286415</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9038575556752682</v>
+        <v>0.9245593528841407</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -4895,19 +4895,19 @@
         <v>36369</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29940</v>
+        <v>30098</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42535</v>
+        <v>42539</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7295002241482917</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6005476320302627</v>
+        <v>0.60371372765114</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8531789269219202</v>
+        <v>0.853245774537771</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>57</v>
@@ -4916,19 +4916,19 @@
         <v>61276</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>52558</v>
+        <v>52072</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>68404</v>
+        <v>68267</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7521546038896307</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6451473961744173</v>
+        <v>0.6391734890288218</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8396476656407234</v>
+        <v>0.8379657093132091</v>
       </c>
     </row>
     <row r="23">
@@ -5020,19 +5020,19 @@
         <v>7513</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3238</v>
+        <v>3255</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13936</v>
+        <v>13964</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.145165718126173</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06256706272796511</v>
+        <v>0.06288701761764855</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2692548714476234</v>
+        <v>0.2698012901200927</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -5041,19 +5041,19 @@
         <v>8661</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4304</v>
+        <v>4355</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14980</v>
+        <v>16044</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1233540206425366</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06130210803088183</v>
+        <v>0.06202056431580289</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2133591251527659</v>
+        <v>0.2285077345768923</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
@@ -5062,19 +5062,19 @@
         <v>16174</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9737</v>
+        <v>9680</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>24775</v>
+        <v>24723</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1326096479757886</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07983467803821366</v>
+        <v>0.07936869953052304</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2031244089503078</v>
+        <v>0.2027043307222884</v>
       </c>
     </row>
     <row r="25">
@@ -5091,19 +5091,19 @@
         <v>7443</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3172</v>
+        <v>3210</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13728</v>
+        <v>13752</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1438074780568566</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06128196689991478</v>
+        <v>0.06202326006608359</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2652490172390832</v>
+        <v>0.265701741872375</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -5112,19 +5112,19 @@
         <v>8335</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4126</v>
+        <v>4073</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14660</v>
+        <v>15317</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1187059132363391</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05876915722886275</v>
+        <v>0.05801009221148254</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2087905142217832</v>
+        <v>0.2181496847604237</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -5133,19 +5133,19 @@
         <v>15777</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9261</v>
+        <v>8696</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>24099</v>
+        <v>24125</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1293575706616485</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07593036908815391</v>
+        <v>0.07129934202889687</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1975842081277977</v>
+        <v>0.1978011264172187</v>
       </c>
     </row>
     <row r="26">
@@ -5162,19 +5162,19 @@
         <v>36800</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>30418</v>
+        <v>29077</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>43077</v>
+        <v>42150</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7110268038169704</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.587726810102418</v>
+        <v>0.5618034167483774</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8323010746540256</v>
+        <v>0.8144032368820752</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>53</v>
@@ -5183,19 +5183,19 @@
         <v>53216</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>45834</v>
+        <v>45044</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>60070</v>
+        <v>59666</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7579400661211243</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6527947285706096</v>
+        <v>0.6415424773171428</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8555449750080604</v>
+        <v>0.8498026757673819</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>89</v>
@@ -5204,19 +5204,19 @@
         <v>90016</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>79843</v>
+        <v>79483</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>98878</v>
+        <v>98892</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7380327813625629</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6546186677913378</v>
+        <v>0.6516747610028345</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8106885082184557</v>
+        <v>0.8107993425818786</v>
       </c>
     </row>
     <row r="27">
@@ -5308,19 +5308,19 @@
         <v>9458</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4201</v>
+        <v>4207</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>17142</v>
+        <v>17830</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08424626127930278</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03741931873233008</v>
+        <v>0.03747246676944367</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.152693951496084</v>
+        <v>0.1588226673759908</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -5329,19 +5329,19 @@
         <v>10084</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4969</v>
+        <v>5133</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>18121</v>
+        <v>18218</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07103237172156228</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03500525756346794</v>
+        <v>0.03615702812195833</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1276491706082071</v>
+        <v>0.12832795647523</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>17</v>
@@ -5350,19 +5350,19 @@
         <v>19542</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12232</v>
+        <v>12155</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>30796</v>
+        <v>30195</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0768674787725228</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04811577493944729</v>
+        <v>0.04781301756197499</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1211352067821374</v>
+        <v>0.1187717205080896</v>
       </c>
     </row>
     <row r="29">
@@ -5379,19 +5379,19 @@
         <v>12819</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6285</v>
+        <v>6663</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>23567</v>
+        <v>21515</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1141854099805223</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05598772172196551</v>
+        <v>0.05935461782661212</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2099261707513067</v>
+        <v>0.1916455001414493</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>14</v>
@@ -5400,19 +5400,19 @@
         <v>15412</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9320</v>
+        <v>8843</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>24990</v>
+        <v>25145</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1085665136495852</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06565368842243854</v>
+        <v>0.06229306468803502</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1760319331437253</v>
+        <v>0.1771270134997777</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>25</v>
@@ -5421,19 +5421,19 @@
         <v>28231</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>18938</v>
+        <v>18964</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>41407</v>
+        <v>40260</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1110477559405851</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07449453103387223</v>
+        <v>0.07459416075282414</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1628751479469345</v>
+        <v>0.1583631499543401</v>
       </c>
     </row>
     <row r="30">
@@ -5450,19 +5450,19 @@
         <v>89986</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>78106</v>
+        <v>79744</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>98237</v>
+        <v>98777</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8015683287401749</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.6957434844133362</v>
+        <v>0.7103300607960347</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8750647504167752</v>
+        <v>0.8798726346930981</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>106</v>
@@ -5471,19 +5471,19 @@
         <v>116466</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>105701</v>
+        <v>105533</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>124136</v>
+        <v>124858</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8204011146288525</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7445750980276078</v>
+        <v>0.7433870512489628</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8744339589790932</v>
+        <v>0.8795191713813195</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>187</v>
@@ -5492,19 +5492,19 @@
         <v>206453</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>192154</v>
+        <v>191382</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>218438</v>
+        <v>218460</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8120847652868921</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7558408313547464</v>
+        <v>0.7528014064151283</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8592281476549942</v>
+        <v>0.8593130598484635</v>
       </c>
     </row>
     <row r="31">
@@ -5596,19 +5596,19 @@
         <v>3303</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1047</v>
+        <v>1055</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>9737</v>
+        <v>8921</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02735725010131993</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008672199670547184</v>
+        <v>0.008737529124097851</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08063365224982054</v>
+        <v>0.07387837054321544</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>11</v>
@@ -5617,19 +5617,19 @@
         <v>12383</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6243</v>
+        <v>6697</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>20495</v>
+        <v>21658</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07531594126387663</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03797197249669665</v>
+        <v>0.04073200134299128</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1246538593455663</v>
+        <v>0.1317233674017413</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>14</v>
@@ -5638,19 +5638,19 @@
         <v>15687</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>8828</v>
+        <v>8979</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>25656</v>
+        <v>25148</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0550082647842744</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03095624427241033</v>
+        <v>0.03148559024855018</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08996783234794058</v>
+        <v>0.08818626367673513</v>
       </c>
     </row>
     <row r="33">
@@ -5667,19 +5667,19 @@
         <v>12128</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>5592</v>
+        <v>5625</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>23049</v>
+        <v>23095</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1004401194713454</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04630800874860836</v>
+        <v>0.04658271494000433</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1908828514824124</v>
+        <v>0.191258908949583</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>8</v>
@@ -5688,19 +5688,19 @@
         <v>9029</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>4342</v>
+        <v>4458</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>16360</v>
+        <v>16777</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.05491768430623796</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.026406627338097</v>
+        <v>0.02711479460136343</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.09950142614065459</v>
+        <v>0.1020364335914095</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>17</v>
@@ -5709,19 +5709,19 @@
         <v>21158</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>12962</v>
+        <v>13436</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>33002</v>
+        <v>34469</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07419375009300465</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04545435260559581</v>
+        <v>0.04711706397462544</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1157270799286948</v>
+        <v>0.1208707114021214</v>
       </c>
     </row>
     <row r="34">
@@ -5738,19 +5738,19 @@
         <v>105320</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>95412</v>
+        <v>94130</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>112376</v>
+        <v>111958</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8722026304273347</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.7901493819142169</v>
+        <v>0.7795339508509025</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9306315081054127</v>
+        <v>0.9271765749597352</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>132</v>
@@ -5759,19 +5759,19 @@
         <v>143004</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>133774</v>
+        <v>133740</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>152059</v>
+        <v>150967</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8697663744298854</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8136244524119792</v>
+        <v>0.8134223861202367</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.924836339177129</v>
+        <v>0.9181943696037523</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>226</v>
@@ -5780,19 +5780,19 @@
         <v>248325</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>235031</v>
+        <v>234564</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>259709</v>
+        <v>258534</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.870797985122721</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8241806720862634</v>
+        <v>0.8225441674311071</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9107213311350909</v>
+        <v>0.906598981083596</v>
       </c>
     </row>
     <row r="35">
@@ -5884,19 +5884,19 @@
         <v>54948</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>42037</v>
+        <v>41838</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>70878</v>
+        <v>71179</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09818555045090073</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.07511403715418052</v>
+        <v>0.07475844284161984</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1266507057156983</v>
+        <v>0.1271872972847241</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>68</v>
@@ -5905,19 +5905,19 @@
         <v>75359</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>58692</v>
+        <v>58476</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>94053</v>
+        <v>92905</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1014290950491968</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.07899579208760302</v>
+        <v>0.07870475752237122</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1265898702921088</v>
+        <v>0.1250448133612651</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>117</v>
@@ -5926,19 +5926,19 @@
         <v>130308</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>110013</v>
+        <v>108483</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>155073</v>
+        <v>153213</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1000355813721766</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08445603094719471</v>
+        <v>0.08328102848819811</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1190476372658302</v>
+        <v>0.1176200586248314</v>
       </c>
     </row>
     <row r="37">
@@ -5955,19 +5955,19 @@
         <v>65740</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>51134</v>
+        <v>49865</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>85584</v>
+        <v>84086</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1174687752140285</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09136945006769699</v>
+        <v>0.08910284319244671</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1529281127084042</v>
+        <v>0.1502513196411456</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>71</v>
@@ -5976,19 +5976,19 @@
         <v>76193</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>60798</v>
+        <v>59792</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>93265</v>
+        <v>92944</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1025513336376681</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.08183048928573784</v>
+        <v>0.08047644927099269</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1255294600652063</v>
+        <v>0.125097689333032</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>128</v>
@@ -5997,19 +5997,19 @@
         <v>141933</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>118233</v>
+        <v>119357</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>165244</v>
+        <v>164694</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1089602662830609</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.09076644818074685</v>
+        <v>0.09162875860384051</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1268558110634042</v>
+        <v>0.1264335934237067</v>
       </c>
     </row>
     <row r="38">
@@ -6026,19 +6026,19 @@
         <v>438949</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>417350</v>
+        <v>417026</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>458466</v>
+        <v>459388</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.7843456743350707</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7457506751723321</v>
+        <v>0.745172648614903</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8192209495011791</v>
+        <v>0.8208671864055702</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>555</v>
@@ -6047,19 +6047,19 @@
         <v>591423</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>567701</v>
+        <v>568970</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>612892</v>
+        <v>614563</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7960195713131352</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7640913815605809</v>
+        <v>0.7657997635497524</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8249157616354712</v>
+        <v>0.8271648974517901</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>953</v>
@@ -6068,19 +6068,19 @@
         <v>1030372</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>995861</v>
+        <v>997398</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1059917</v>
+        <v>1057164</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7910041523447625</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7645106741635749</v>
+        <v>0.7656904827266394</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8136860448674947</v>
+        <v>0.8115725875585744</v>
       </c>
     </row>
     <row r="39">
@@ -6416,19 +6416,19 @@
         <v>3233</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7429</v>
+        <v>7395</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0831224877253187</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02046759310733419</v>
+        <v>0.02039642686777812</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1910006430209944</v>
+        <v>0.1901329712442886</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -6437,19 +6437,19 @@
         <v>3252</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1031</v>
+        <v>1002</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8786</v>
+        <v>8443</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06584172876547639</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02087537377158671</v>
+        <v>0.0202841880669988</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1778911719677735</v>
+        <v>0.1709418604274864</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -6458,19 +6458,19 @@
         <v>6485</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3125</v>
+        <v>2702</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12886</v>
+        <v>12664</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07345497517807059</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03539659230745208</v>
+        <v>0.03060983938176986</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1459549861738803</v>
+        <v>0.1434413193049748</v>
       </c>
     </row>
     <row r="5">
@@ -6487,19 +6487,19 @@
         <v>4972</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1647</v>
+        <v>1721</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9510</v>
+        <v>9444</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.127815609539684</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04234943843832435</v>
+        <v>0.04423683077555554</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2445014597556702</v>
+        <v>0.242808061907442</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -6508,19 +6508,19 @@
         <v>8332</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3482</v>
+        <v>3809</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15653</v>
+        <v>16706</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1686998129038493</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07049222438350945</v>
+        <v>0.07711042383100646</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3169152526592631</v>
+        <v>0.3382362795499101</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -6529,19 +6529,19 @@
         <v>13304</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7457</v>
+        <v>7033</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21945</v>
+        <v>21351</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1506877848837071</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08446476189506927</v>
+        <v>0.07966038367463421</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2485659141215691</v>
+        <v>0.2418328259675189</v>
       </c>
     </row>
     <row r="6">
@@ -6558,19 +6558,19 @@
         <v>30691</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25465</v>
+        <v>25512</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34922</v>
+        <v>34871</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7890619027349973</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6546863725306534</v>
+        <v>0.6558974681545722</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8978203548116835</v>
+        <v>0.896513302105822</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -6579,19 +6579,19 @@
         <v>37807</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30496</v>
+        <v>29737</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>44256</v>
+        <v>43526</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7654584583306743</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6174486031189078</v>
+        <v>0.6020742479195286</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.896031276463813</v>
+        <v>0.8812594390493241</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>66</v>
@@ -6600,19 +6600,19 @@
         <v>68498</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>59708</v>
+        <v>58666</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>75556</v>
+        <v>75433</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7758572399382223</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6762970473877347</v>
+        <v>0.6644898556783113</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8558038203564357</v>
+        <v>0.8544109179138004</v>
       </c>
     </row>
     <row r="7">
@@ -6707,7 +6707,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6380</v>
+        <v>7091</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02408467145257652</v>
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07308339642818064</v>
+        <v>0.08123281916538579</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -6725,19 +6725,19 @@
         <v>6724</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2616</v>
+        <v>2652</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14506</v>
+        <v>14451</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05835336404339565</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02270255914346489</v>
+        <v>0.02301799897836649</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1258906783331692</v>
+        <v>0.1254148193747015</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -6746,19 +6746,19 @@
         <v>8826</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3739</v>
+        <v>3974</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17288</v>
+        <v>17583</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04358229549651275</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01846245178150407</v>
+        <v>0.01962201825473154</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08536239062592706</v>
+        <v>0.08681775429926811</v>
       </c>
     </row>
     <row r="9">
@@ -6775,19 +6775,19 @@
         <v>8729</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4108</v>
+        <v>4381</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14432</v>
+        <v>15050</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09999096034368869</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04705928893802117</v>
+        <v>0.05018314733835956</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1653191115742212</v>
+        <v>0.1724091985718828</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -6796,19 +6796,19 @@
         <v>8563</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3684</v>
+        <v>3555</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18369</v>
+        <v>17495</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07431539106294076</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03197496376125133</v>
+        <v>0.03085188702523712</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1594150192238646</v>
+        <v>0.1518310603634948</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>16</v>
@@ -6817,19 +6817,19 @@
         <v>17292</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9924</v>
+        <v>10238</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>26871</v>
+        <v>28002</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08538250699743587</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04900041020838045</v>
+        <v>0.05055215301487389</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1326812535886344</v>
+        <v>0.1382674049097072</v>
       </c>
     </row>
     <row r="10">
@@ -6846,19 +6846,19 @@
         <v>76464</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>69981</v>
+        <v>69158</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81666</v>
+        <v>81156</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8759243682037348</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.80166555173553</v>
+        <v>0.7922370661305279</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9355132826412341</v>
+        <v>0.9296782939442191</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>84</v>
@@ -6867,19 +6867,19 @@
         <v>99941</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>89784</v>
+        <v>89115</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>107151</v>
+        <v>107213</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8673312448936635</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.779185828372108</v>
+        <v>0.7733829306469913</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9299019280850194</v>
+        <v>0.9304460817281365</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>162</v>
@@ -6888,19 +6888,19 @@
         <v>176405</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>163932</v>
+        <v>164204</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>185531</v>
+        <v>185762</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8710351975060514</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8094469405458885</v>
+        <v>0.810791517972911</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9160966011903033</v>
+        <v>0.9172371679136091</v>
       </c>
     </row>
     <row r="11">
@@ -6995,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7839</v>
+        <v>6282</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03336519432129743</v>
@@ -7004,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.123362321732872</v>
+        <v>0.09885301045349502</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -7013,19 +7013,19 @@
         <v>4477</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12063</v>
+        <v>11974</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05603825202687125</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01539825270651756</v>
+        <v>0.01544963995606581</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1509857184063206</v>
+        <v>0.1498721111504753</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -7034,19 +7034,19 @@
         <v>6598</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2287</v>
+        <v>2457</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14268</v>
+        <v>14432</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04599396416996247</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01594585558244384</v>
+        <v>0.01712922525294274</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0994695493998865</v>
+        <v>0.1006132071004447</v>
       </c>
     </row>
     <row r="13">
@@ -7063,19 +7063,19 @@
         <v>4627</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1558</v>
+        <v>2180</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9524</v>
+        <v>9302</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07281212692199555</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02452398323695322</v>
+        <v>0.03429810094358078</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1498801487217714</v>
+        <v>0.1463781327835838</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -7087,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5898</v>
+        <v>7503</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01543591743134758</v>
@@ -7096,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0738187565253135</v>
+        <v>0.09390807074801526</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -7105,19 +7105,19 @@
         <v>5860</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2232</v>
+        <v>2374</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11141</v>
+        <v>12761</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04085389024057721</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01555951404665635</v>
+        <v>0.01654727538153871</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07766933554152554</v>
+        <v>0.08896148011621791</v>
       </c>
     </row>
     <row r="14">
@@ -7134,19 +7134,19 @@
         <v>56799</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>51131</v>
+        <v>51340</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>60550</v>
+        <v>60342</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8938226787567071</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8046256566038472</v>
+        <v>0.8079133151057144</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9528454843699636</v>
+        <v>0.9495843101010625</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -7155,19 +7155,19 @@
         <v>74186</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>66049</v>
+        <v>66189</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78617</v>
+        <v>78618</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9285258305417812</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8266788996750332</v>
+        <v>0.828431032524091</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9839731215216594</v>
+        <v>0.9839871731807793</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>129</v>
@@ -7176,19 +7176,19 @@
         <v>130985</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>122285</v>
+        <v>121369</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>136808</v>
+        <v>136522</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9131521455894603</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8524961909913435</v>
+        <v>0.8461163628384537</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9537441350179837</v>
+        <v>0.9517495721932961</v>
       </c>
     </row>
     <row r="15">
@@ -7280,19 +7280,19 @@
         <v>6693</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2703</v>
+        <v>3195</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12087</v>
+        <v>12254</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1034239897072052</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04177451409164881</v>
+        <v>0.04937254292516325</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1867876191343412</v>
+        <v>0.1893545679439097</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -7301,19 +7301,19 @@
         <v>5996</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1598</v>
+        <v>1353</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14250</v>
+        <v>13986</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06547429581520699</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01744897283049019</v>
+        <v>0.01477275451858994</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1556079049956032</v>
+        <v>0.1527283044604004</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -7322,19 +7322,19 @@
         <v>12688</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6492</v>
+        <v>6683</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21768</v>
+        <v>21672</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08118777994607776</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0415414996650459</v>
+        <v>0.04276085330536294</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1392833207951601</v>
+        <v>0.1386727705218492</v>
       </c>
     </row>
     <row r="17">
@@ -7351,19 +7351,19 @@
         <v>5532</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1963</v>
+        <v>2629</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11256</v>
+        <v>11674</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.085485152378767</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03033289532845137</v>
+        <v>0.04061872517494947</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1739333565033636</v>
+        <v>0.1803936236053571</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -7372,19 +7372,19 @@
         <v>7055</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2429</v>
+        <v>2458</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15543</v>
+        <v>15958</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0770445068329572</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02652518441928495</v>
+        <v>0.02683824469745201</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1697317259496287</v>
+        <v>0.1742644900696309</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -7393,19 +7393,19 @@
         <v>12587</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5917</v>
+        <v>6383</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21132</v>
+        <v>21582</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08053944806267692</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03786272006328523</v>
+        <v>0.04084418719810128</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1352144159196315</v>
+        <v>0.1380953401774687</v>
       </c>
     </row>
     <row r="18">
@@ -7422,19 +7422,19 @@
         <v>52487</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>45478</v>
+        <v>45657</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>57793</v>
+        <v>57019</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8110908579140278</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.702769688074632</v>
+        <v>0.7055464377582535</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8930834083136296</v>
+        <v>0.8811133319954242</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>67</v>
@@ -7443,19 +7443,19 @@
         <v>78523</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>68619</v>
+        <v>69247</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>85061</v>
+        <v>85339</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8574811973518358</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7493270218318928</v>
+        <v>0.7561871801595506</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9288804249782587</v>
+        <v>0.9319081684241588</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>124</v>
@@ -7464,19 +7464,19 @@
         <v>131009</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>119832</v>
+        <v>119396</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>139637</v>
+        <v>139850</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8382727719912453</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7667504166168811</v>
+        <v>0.763961691245605</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8934793853246233</v>
+        <v>0.894836864606687</v>
       </c>
     </row>
     <row r="19">
@@ -7581,19 +7581,19 @@
         <v>3426</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8890</v>
+        <v>9009</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06779195791025201</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02171055977327976</v>
+        <v>0.02176035293304497</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1759304842822867</v>
+        <v>0.1782774116449416</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -7602,19 +7602,19 @@
         <v>3426</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8756</v>
+        <v>8200</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03698946958499391</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01202235096763708</v>
+        <v>0.01193148230866492</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09454865766303766</v>
+        <v>0.08854658048268577</v>
       </c>
     </row>
     <row r="21">
@@ -7631,19 +7631,19 @@
         <v>4118</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1608</v>
+        <v>1589</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9025</v>
+        <v>8468</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09784988998318822</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03821683229714558</v>
+        <v>0.03777153637870494</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2144738539286526</v>
+        <v>0.2012412598333008</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -7652,19 +7652,19 @@
         <v>12615</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7190</v>
+        <v>7343</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21126</v>
+        <v>20707</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2496452238488635</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1422953597242506</v>
+        <v>0.1453174982489304</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.418071282931001</v>
+        <v>0.4097777816573528</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>16</v>
@@ -7673,19 +7673,19 @@
         <v>16733</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>9756</v>
+        <v>10242</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>25306</v>
+        <v>25314</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1806742995186336</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.105345137216657</v>
+        <v>0.1105940098011607</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2732475977199353</v>
+        <v>0.2733327371695495</v>
       </c>
     </row>
     <row r="22">
@@ -7702,19 +7702,19 @@
         <v>37962</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33055</v>
+        <v>33612</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>40472</v>
+        <v>40491</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9021501100168118</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7855261460713476</v>
+        <v>0.7987587401666992</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9617831677028544</v>
+        <v>0.9622284636212951</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -7723,19 +7723,19 @@
         <v>34491</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26262</v>
+        <v>26837</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40410</v>
+        <v>40992</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6825628182408845</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5197114723743375</v>
+        <v>0.531088314310014</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7996814421200577</v>
+        <v>0.8112094468835614</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>74</v>
@@ -7744,19 +7744,19 @@
         <v>72454</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>63062</v>
+        <v>63264</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>79299</v>
+        <v>79834</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7823362308963725</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6809306233620291</v>
+        <v>0.6831113188809094</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.856247690823061</v>
+        <v>0.8620281702821997</v>
       </c>
     </row>
     <row r="23">
@@ -7848,19 +7848,19 @@
         <v>10019</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5689</v>
+        <v>5317</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16140</v>
+        <v>15156</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2068135724609961</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1174286842436489</v>
+        <v>0.1097473352794759</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3331629883235496</v>
+        <v>0.3128449716672623</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -7869,19 +7869,19 @@
         <v>11589</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5769</v>
+        <v>5196</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20313</v>
+        <v>20039</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1719771577190637</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08560578189936985</v>
+        <v>0.07709965555479542</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3014364168249582</v>
+        <v>0.2973683256194175</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>20</v>
@@ -7890,19 +7890,19 @@
         <v>21608</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>13222</v>
+        <v>14246</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>32873</v>
+        <v>31903</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1865470440084685</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1141429385207929</v>
+        <v>0.1229872446927603</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2837941104816091</v>
+        <v>0.2754216809884644</v>
       </c>
     </row>
     <row r="25">
@@ -7919,19 +7919,19 @@
         <v>2496</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6531</v>
+        <v>6810</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05151737116137781</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01640975122440047</v>
+        <v>0.01656303805940935</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1347998898830345</v>
+        <v>0.1405700217211214</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7241</v>
+        <v>5932</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01868900012421995</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1074509071376505</v>
+        <v>0.08802648049204648</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -7961,19 +7961,19 @@
         <v>3755</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>874</v>
+        <v>844</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8730</v>
+        <v>9371</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03241904773735871</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007546354435005419</v>
+        <v>0.007283550803786671</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07536411553592834</v>
+        <v>0.08089635700784786</v>
       </c>
     </row>
     <row r="26">
@@ -7990,19 +7990,19 @@
         <v>35931</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>29818</v>
+        <v>30298</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>41090</v>
+        <v>40554</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.741669056377626</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6154910081014867</v>
+        <v>0.6253957366269737</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8481582618723514</v>
+        <v>0.8370943286516239</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>50</v>
@@ -8011,19 +8011,19 @@
         <v>54539</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>46084</v>
+        <v>45511</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>60939</v>
+        <v>61171</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8093338421567164</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6838541271421129</v>
+        <v>0.6753525827985799</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9042992550883349</v>
+        <v>0.9077372032735769</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>90</v>
@@ -8032,19 +8032,19 @@
         <v>90470</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>79011</v>
+        <v>80243</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>98784</v>
+        <v>98698</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7810339082541727</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6821086837724576</v>
+        <v>0.6927448265425075</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8528055656219098</v>
+        <v>0.8520602284691148</v>
       </c>
     </row>
     <row r="27">
@@ -8136,19 +8136,19 @@
         <v>6441</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2697</v>
+        <v>2704</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11974</v>
+        <v>12230</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05741645058410226</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02403884629433342</v>
+        <v>0.02410697263385826</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1067324934247254</v>
+        <v>0.1090200063674594</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -8157,19 +8157,19 @@
         <v>8672</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3750</v>
+        <v>3739</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>16735</v>
+        <v>16126</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05874653360226802</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02540137783057356</v>
+        <v>0.02532912703499305</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1133636344154443</v>
+        <v>0.1092365114651891</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>14</v>
@@ -8178,19 +8178,19 @@
         <v>15114</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>8655</v>
+        <v>8846</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>24480</v>
+        <v>25372</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05817220662506301</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03331359649974807</v>
+        <v>0.03404693243608763</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09422336600384928</v>
+        <v>0.09765665463028055</v>
       </c>
     </row>
     <row r="29">
@@ -8207,19 +8207,19 @@
         <v>11525</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6570</v>
+        <v>6414</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18531</v>
+        <v>18933</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1027279963824783</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05856653967291831</v>
+        <v>0.05717392979108104</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1651782098949704</v>
+        <v>0.1687651892843518</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -8228,19 +8228,19 @@
         <v>16070</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8678</v>
+        <v>9235</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>26990</v>
+        <v>26489</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1088589695997368</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05878314207982984</v>
+        <v>0.06255503020086092</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1828308207941514</v>
+        <v>0.1794360858493333</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>25</v>
@@ -8249,19 +8249,19 @@
         <v>27595</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>17851</v>
+        <v>17733</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>40622</v>
+        <v>38181</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1062116285938733</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06870815272512612</v>
+        <v>0.06825545043863242</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1563512978047086</v>
+        <v>0.1469578138003896</v>
       </c>
     </row>
     <row r="30">
@@ -8278,19 +8278,19 @@
         <v>94219</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>86527</v>
+        <v>86015</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>100918</v>
+        <v>101128</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8398555530334194</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7712879643796207</v>
+        <v>0.7667244149540005</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8995692623744762</v>
+        <v>0.9014383488179059</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>105</v>
@@ -8299,19 +8299,19 @@
         <v>122882</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>111159</v>
+        <v>112664</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>131107</v>
+        <v>132185</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8323944967979952</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7529800691267069</v>
+        <v>0.7631737882144954</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8881089579914867</v>
+        <v>0.8954091116855688</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>195</v>
@@ -8320,19 +8320,19 @@
         <v>217101</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>203583</v>
+        <v>203398</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>228975</v>
+        <v>228009</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8356161647810637</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7835852345666819</v>
+        <v>0.782873538692211</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8813152799971377</v>
+        <v>0.8776006474408047</v>
       </c>
     </row>
     <row r="31">
@@ -8424,19 +8424,19 @@
         <v>4742</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1648</v>
+        <v>1712</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10160</v>
+        <v>10840</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03534311372936509</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0122797629858829</v>
+        <v>0.01276000860262207</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07572877822219484</v>
+        <v>0.08079226591549467</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -8445,19 +8445,19 @@
         <v>5355</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>12318</v>
+        <v>13281</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03037547079317604</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.007647971785312662</v>
+        <v>0.007671407149487287</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06987080469149531</v>
+        <v>0.07533370045262841</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>9</v>
@@ -8466,19 +8466,19 @@
         <v>10097</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4361</v>
+        <v>4851</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>18280</v>
+        <v>17946</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03252225096087104</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01404516891608848</v>
+        <v>0.01562508101630863</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05887787353052307</v>
+        <v>0.05780234723312685</v>
       </c>
     </row>
     <row r="33">
@@ -8495,19 +8495,19 @@
         <v>5782</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2543</v>
+        <v>2318</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>11564</v>
+        <v>12005</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.04309504299641693</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01895032720573952</v>
+        <v>0.01727891728073627</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08618953550715083</v>
+        <v>0.08947626769016222</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>12</v>
@@ -8516,19 +8516,19 @@
         <v>16011</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>8775</v>
+        <v>9514</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>27004</v>
+        <v>27500</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.0908188827949513</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04977611069633432</v>
+        <v>0.05396397832468428</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1531758139979967</v>
+        <v>0.1559867685203878</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>18</v>
@@ -8537,19 +8537,19 @@
         <v>21793</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>13065</v>
+        <v>13221</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>34219</v>
+        <v>33577</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07019489791484157</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04208133545091858</v>
+        <v>0.04258421832873476</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.110217300602595</v>
+        <v>0.108150128953032</v>
       </c>
     </row>
     <row r="34">
@@ -8566,19 +8566,19 @@
         <v>123644</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>116748</v>
+        <v>115499</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>128414</v>
+        <v>128487</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.921561843274218</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.870164376997589</v>
+        <v>0.8608529392452754</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9571165771599842</v>
+        <v>0.9576580638558843</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>126</v>
@@ -8587,19 +8587,19 @@
         <v>154931</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>144104</v>
+        <v>142006</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>163197</v>
+        <v>163403</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8788056464118726</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8173931678179513</v>
+        <v>0.8054954477708381</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9256926212650936</v>
+        <v>0.9268616254426955</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>256</v>
@@ -8608,19 +8608,19 @@
         <v>278575</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>264631</v>
+        <v>265133</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>288780</v>
+        <v>288583</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8972828511242874</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8523689057208033</v>
+        <v>0.8539868225451863</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9301539409570944</v>
+        <v>0.9295172735342175</v>
       </c>
     </row>
     <row r="35">
@@ -8712,19 +8712,19 @@
         <v>35351</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>25988</v>
+        <v>25834</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>48810</v>
+        <v>46794</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05978244762145465</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04394933254952856</v>
+        <v>0.04368772696513878</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.08254343542206581</v>
+        <v>0.07913318305577362</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>37</v>
@@ -8733,19 +8733,19 @@
         <v>49491</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>35911</v>
+        <v>35388</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>65574</v>
+        <v>68128</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06361915097534006</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.04616273619995185</v>
+        <v>0.04549032383016458</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.08429330257782786</v>
+        <v>0.087575338563537</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>77</v>
@@ -8754,19 +8754,19 @@
         <v>84842</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>66817</v>
+        <v>67230</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>103583</v>
+        <v>104438</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.06196223280471149</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.04879771246137036</v>
+        <v>0.04909963031149024</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07564911290172951</v>
+        <v>0.07627364565721396</v>
       </c>
     </row>
     <row r="37">
@@ -8783,19 +8783,19 @@
         <v>47779</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>35316</v>
+        <v>37206</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>60905</v>
+        <v>62121</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08079930942175764</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05972255753210517</v>
+        <v>0.06291920251325643</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1029962195880361</v>
+        <v>0.1050531484238847</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>55</v>
@@ -8804,19 +8804,19 @@
         <v>71140</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>54523</v>
+        <v>54333</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>91207</v>
+        <v>90620</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09144748881074401</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07008732217841281</v>
+        <v>0.06984284284614879</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1172435756135213</v>
+        <v>0.1164880009710368</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>109</v>
@@ -8825,19 +8825,19 @@
         <v>118919</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>97855</v>
+        <v>98293</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>142796</v>
+        <v>141303</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.08684896755789367</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07146589124508065</v>
+        <v>0.07178532181029851</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1042867693122217</v>
+        <v>0.1031970178194846</v>
       </c>
     </row>
     <row r="38">
@@ -8854,19 +8854,19 @@
         <v>508198</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>492180</v>
+        <v>491892</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>524267</v>
+        <v>523857</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8594182429567877</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8323304061436091</v>
+        <v>0.8318426324521823</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8865922866703817</v>
+        <v>0.885898730234561</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>563</v>
@@ -8875,19 +8875,19 @@
         <v>657300</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>634134</v>
+        <v>633775</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>680270</v>
+        <v>678758</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.844933360213916</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8151547737395444</v>
+        <v>0.8146930604463319</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8744601417833258</v>
+        <v>0.8725167308763666</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1096</v>
@@ -8896,19 +8896,19 @@
         <v>1165498</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1138266</v>
+        <v>1138489</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1193760</v>
+        <v>1192394</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8511887996373948</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8313005428335402</v>
+        <v>0.8314638566758162</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8718294018415295</v>
+        <v>0.8708314359064803</v>
       </c>
     </row>
     <row r="39">
@@ -9244,19 +9244,19 @@
         <v>4557</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1439</v>
+        <v>1634</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8640</v>
+        <v>8674</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07475750531969555</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02360666679852674</v>
+        <v>0.02680736613381236</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1417465519268562</v>
+        <v>0.142309264262363</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -9265,19 +9265,19 @@
         <v>5991</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3045</v>
+        <v>2960</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10358</v>
+        <v>10025</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0917745172046206</v>
+        <v>0.09177451720462061</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04665513982248236</v>
+        <v>0.04534970896523019</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1586876425963881</v>
+        <v>0.1535841505615898</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -9286,19 +9286,19 @@
         <v>10548</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6131</v>
+        <v>6245</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16117</v>
+        <v>16738</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08355729811106061</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04857033228984061</v>
+        <v>0.04947149538920789</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1276767272028867</v>
+        <v>0.1326007745771285</v>
       </c>
     </row>
     <row r="5">
@@ -9315,19 +9315,19 @@
         <v>11518</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7100</v>
+        <v>7140</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16679</v>
+        <v>17271</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1889587289294841</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1164843644118964</v>
+        <v>0.1171343767672138</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2736234416549415</v>
+        <v>0.283334579011416</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -9336,19 +9336,19 @@
         <v>8734</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5153</v>
+        <v>5411</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12992</v>
+        <v>13269</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1338045114052761</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07893571568838668</v>
+        <v>0.08289644251425654</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1990376375947044</v>
+        <v>0.2032733736045437</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>33</v>
@@ -9357,19 +9357,19 @@
         <v>20252</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14697</v>
+        <v>14468</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27478</v>
+        <v>27611</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1604375238515901</v>
+        <v>0.1604375238515902</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1164310101470294</v>
+        <v>0.1146167715693576</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2176820089531115</v>
+        <v>0.2187304207016038</v>
       </c>
     </row>
     <row r="6">
@@ -9386,19 +9386,19 @@
         <v>44880</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39050</v>
+        <v>38183</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>49900</v>
+        <v>50176</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7362837657508204</v>
+        <v>0.7362837657508202</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6406411699916654</v>
+        <v>0.6264072908213337</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8186314177546705</v>
+        <v>0.8231624793135981</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>105</v>
@@ -9407,19 +9407,19 @@
         <v>50551</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>45175</v>
+        <v>45148</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>54774</v>
+        <v>55114</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7744209713901032</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6920671278558175</v>
+        <v>0.6916499206979254</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8391125026445672</v>
+        <v>0.8443277831859277</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>166</v>
@@ -9428,19 +9428,19 @@
         <v>95431</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>86909</v>
+        <v>86899</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>102431</v>
+        <v>102086</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7560051780373491</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6884917162810287</v>
+        <v>0.6884107559469154</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8114567333142783</v>
+        <v>0.8087218412438614</v>
       </c>
     </row>
     <row r="7">
@@ -9532,19 +9532,19 @@
         <v>5545</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2743</v>
+        <v>1871</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11125</v>
+        <v>11384</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0634128940798023</v>
+        <v>0.06341289407980229</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03136864683263298</v>
+        <v>0.02139096464190565</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.127220658348944</v>
+        <v>0.130187305863998</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -9553,19 +9553,19 @@
         <v>16335</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10531</v>
+        <v>10830</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22986</v>
+        <v>23375</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1207093883406995</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07781533578391168</v>
+        <v>0.08002622631171434</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1698522336291164</v>
+        <v>0.1727318644716656</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>30</v>
@@ -9574,19 +9574,19 @@
         <v>21880</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15450</v>
+        <v>15239</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>30406</v>
+        <v>30752</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.09821897957215532</v>
+        <v>0.09821897957215531</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06935556708199016</v>
+        <v>0.06840566476015383</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1364916555477369</v>
+        <v>0.1380450665168312</v>
       </c>
     </row>
     <row r="9">
@@ -9603,19 +9603,19 @@
         <v>5660</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1952</v>
+        <v>1931</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11371</v>
+        <v>11229</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0647230224769179</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02232772169994114</v>
+        <v>0.02208565621447596</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1300329145257176</v>
+        <v>0.1284116014628125</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>23</v>
@@ -9624,19 +9624,19 @@
         <v>13539</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8769</v>
+        <v>8799</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>19211</v>
+        <v>19635</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1000463625839032</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06479756608910126</v>
+        <v>0.06501945977093075</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1419589222983305</v>
+        <v>0.1450897569357733</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>29</v>
@@ -9645,19 +9645,19 @@
         <v>19199</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>12852</v>
+        <v>13443</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>26376</v>
+        <v>26338</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.08618100540412572</v>
+        <v>0.08618100540412571</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05769199625928976</v>
+        <v>0.06034287026727331</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1183984912028883</v>
+        <v>0.1182301982058633</v>
       </c>
     </row>
     <row r="10">
@@ -9674,19 +9674,19 @@
         <v>76239</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>69765</v>
+        <v>69556</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80939</v>
+        <v>80972</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8718640834432797</v>
+        <v>0.8718640834432798</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7978214511237099</v>
+        <v>0.7954349713620708</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.92560572129858</v>
+        <v>0.9259882531933772</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>176</v>
@@ -9695,19 +9695,19 @@
         <v>105454</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>96823</v>
+        <v>96783</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>112416</v>
+        <v>111719</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7792442490753974</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7154726603498789</v>
+        <v>0.715172161782083</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8306922177430711</v>
+        <v>0.8255453558976619</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>258</v>
@@ -9716,19 +9716,19 @@
         <v>181692</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>171247</v>
+        <v>171654</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>190489</v>
+        <v>190891</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.815600015023719</v>
+        <v>0.8156000150237189</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7687111459533498</v>
+        <v>0.7705418941736781</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8550897542373912</v>
+        <v>0.856895192343384</v>
       </c>
     </row>
     <row r="11">
@@ -9820,19 +9820,19 @@
         <v>12983</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8476</v>
+        <v>8594</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18443</v>
+        <v>18464</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1796059589214894</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1172526215903285</v>
+        <v>0.1188850112782545</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2551493573850516</v>
+        <v>0.2554394557758137</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>27</v>
@@ -9841,19 +9841,19 @@
         <v>13769</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9660</v>
+        <v>9110</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19110</v>
+        <v>19600</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1603864405635773</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.112519798446149</v>
+        <v>0.1061125223477117</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2225984036666175</v>
+        <v>0.228310778745847</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>50</v>
@@ -9862,19 +9862,19 @@
         <v>26752</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20297</v>
+        <v>20597</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>34031</v>
+        <v>33848</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1691718602722763</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.128349793784298</v>
+        <v>0.1302490709884533</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2152016151466587</v>
+        <v>0.214046129214519</v>
       </c>
     </row>
     <row r="13">
@@ -9891,19 +9891,19 @@
         <v>6747</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3699</v>
+        <v>3664</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11716</v>
+        <v>11540</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.09333311384963909</v>
+        <v>0.09333311384963908</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05117504628653925</v>
+        <v>0.05068435019117068</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.162083244599222</v>
+        <v>0.1596416638171812</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -9912,19 +9912,19 @@
         <v>9397</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5884</v>
+        <v>5833</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14203</v>
+        <v>14850</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1094568516583682</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06853696980259663</v>
+        <v>0.06794267338165973</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1654356686637262</v>
+        <v>0.1729799257016094</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -9933,19 +9933,19 @@
         <v>16143</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11335</v>
+        <v>11338</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22791</v>
+        <v>22140</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1020865418886444</v>
+        <v>0.1020865418886445</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07167619456630572</v>
+        <v>0.07169657916986748</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1441214025986034</v>
+        <v>0.1400065110887464</v>
       </c>
     </row>
     <row r="14">
@@ -9962,19 +9962,19 @@
         <v>52556</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46658</v>
+        <v>46727</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>57697</v>
+        <v>58525</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7270609272288716</v>
+        <v>0.7270609272288715</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.645470846165382</v>
+        <v>0.6464319425093532</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.798184484494903</v>
+        <v>0.809642197350479</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>124</v>
@@ -9983,19 +9983,19 @@
         <v>62684</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>55936</v>
+        <v>57171</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>67685</v>
+        <v>68822</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7301567077780545</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6515505857743299</v>
+        <v>0.6659455723001287</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.78840479957278</v>
+        <v>0.8016565769551941</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>212</v>
@@ -10004,19 +10004,19 @@
         <v>115240</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>107063</v>
+        <v>106755</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>123089</v>
+        <v>122486</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7287415978390792</v>
+        <v>0.7287415978390793</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6770347791893264</v>
+        <v>0.6750894740338155</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7783761540987849</v>
+        <v>0.7745650003307617</v>
       </c>
     </row>
     <row r="15">
@@ -10108,19 +10108,19 @@
         <v>3865</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1750</v>
+        <v>1691</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8361</v>
+        <v>7832</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04647621015226281</v>
+        <v>0.0464762101522628</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02104568445645071</v>
+        <v>0.02033869832207793</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1005481219941803</v>
+        <v>0.09418158419488627</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -10129,19 +10129,19 @@
         <v>7420</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4536</v>
+        <v>4400</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11199</v>
+        <v>11271</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06714237383482197</v>
+        <v>0.06714237383482195</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04104610236317886</v>
+        <v>0.0398159504300586</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1013482611062953</v>
+        <v>0.1019931279736157</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -10150,19 +10150,19 @@
         <v>11284</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7042</v>
+        <v>7550</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17044</v>
+        <v>17368</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0582684685303843</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03636236437693923</v>
+        <v>0.038988067724047</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08801163831239513</v>
+        <v>0.08968392997468694</v>
       </c>
     </row>
     <row r="17">
@@ -10179,19 +10179,19 @@
         <v>11874</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7455</v>
+        <v>7610</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17365</v>
+        <v>17798</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1427920250867324</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08964919401807703</v>
+        <v>0.0915121080841188</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2088272067550554</v>
+        <v>0.2140299829721285</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>31</v>
@@ -10200,19 +10200,19 @@
         <v>13530</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9607</v>
+        <v>9623</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18691</v>
+        <v>18540</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1224361667837413</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08693617080576274</v>
+        <v>0.08708733611629275</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1691462537360851</v>
+        <v>0.167778394264772</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -10221,19 +10221,19 @@
         <v>25404</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>18884</v>
+        <v>18904</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32206</v>
+        <v>32062</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1311768291411066</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09750932895273498</v>
+        <v>0.09761506748767357</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1663002480431317</v>
+        <v>0.1655571416262059</v>
       </c>
     </row>
     <row r="18">
@@ -10250,19 +10250,19 @@
         <v>67417</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>60610</v>
+        <v>61104</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>72119</v>
+        <v>72485</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8107317647610048</v>
+        <v>0.8107317647610047</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7288728934549372</v>
+        <v>0.7348106059793921</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8672677776141242</v>
+        <v>0.8716695583832684</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>207</v>
@@ -10271,19 +10271,19 @@
         <v>89555</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>83421</v>
+        <v>83481</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>94585</v>
+        <v>94557</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.8104214593814367</v>
+        <v>0.8104214593814368</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7549166174019841</v>
+        <v>0.755452993519653</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8559461920867782</v>
+        <v>0.8556860300458353</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>301</v>
@@ -10292,19 +10292,19 @@
         <v>156972</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>148509</v>
+        <v>148119</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>164366</v>
+        <v>165039</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8105547023285091</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7668537567372095</v>
+        <v>0.7648423673268628</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8487343938652558</v>
+        <v>0.8522093336528097</v>
       </c>
     </row>
     <row r="19">
@@ -10396,19 +10396,19 @@
         <v>2597</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5225</v>
+        <v>5716</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07115789154405593</v>
+        <v>0.0711578915440559</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02799279254493479</v>
+        <v>0.02763092817822092</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1431371960505306</v>
+        <v>0.1565875359873669</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -10417,19 +10417,19 @@
         <v>2074</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>789</v>
+        <v>469</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5329</v>
+        <v>4973</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03369494376052918</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01281628420419511</v>
+        <v>0.007613020850443838</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0865898945903591</v>
+        <v>0.08080152359859402</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -10438,19 +10438,19 @@
         <v>4671</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2237</v>
+        <v>2376</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8417</v>
+        <v>9182</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0476427325689456</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02281204615430997</v>
+        <v>0.02423165203800898</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08584886364177952</v>
+        <v>0.09365395326422325</v>
       </c>
     </row>
     <row r="21">
@@ -10467,19 +10467,19 @@
         <v>5588</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9266</v>
+        <v>9173</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1530802919585008</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08188954517771689</v>
+        <v>0.08182733789141035</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2538387774728697</v>
+        <v>0.2512810736911965</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>33</v>
@@ -10488,19 +10488,19 @@
         <v>12351</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8891</v>
+        <v>8919</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17017</v>
+        <v>16614</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2006866274666358</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1444771329915338</v>
+        <v>0.1449333224667622</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2765034568510765</v>
+        <v>0.269959189005812</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>44</v>
@@ -10509,19 +10509,19 @@
         <v>17939</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>13513</v>
+        <v>13410</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>22552</v>
+        <v>22863</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1829623651515903</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1378204914007982</v>
+        <v>0.1367709074449122</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2300139771365759</v>
+        <v>0.2331858475712879</v>
       </c>
     </row>
     <row r="22">
@@ -10538,19 +10538,19 @@
         <v>28318</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24546</v>
+        <v>23803</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31409</v>
+        <v>31527</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7757618164974432</v>
+        <v>0.775761816497443</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6724381209040383</v>
+        <v>0.6520834574889294</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8604450344195044</v>
+        <v>0.8636763525459868</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>128</v>
@@ -10559,19 +10559,19 @@
         <v>47118</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>42912</v>
+        <v>42714</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>51000</v>
+        <v>50960</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.765618428772835</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.69727887295949</v>
+        <v>0.6940545321960601</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8287017293078345</v>
+        <v>0.8280500524442652</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>183</v>
@@ -10580,19 +10580,19 @@
         <v>75435</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>69760</v>
+        <v>69716</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>80329</v>
+        <v>80354</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7693949022794643</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7115097033908183</v>
+        <v>0.7110576302076972</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8193084072960518</v>
+        <v>0.8195619886498681</v>
       </c>
     </row>
     <row r="23">
@@ -10684,19 +10684,19 @@
         <v>11329</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8024</v>
+        <v>7749</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15662</v>
+        <v>15499</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1881098885118457</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1332318350711641</v>
+        <v>0.1286637860348878</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2600699182002938</v>
+        <v>0.2573499567886732</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>39</v>
@@ -10705,19 +10705,19 @@
         <v>13455</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9791</v>
+        <v>9721</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>18019</v>
+        <v>17750</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.1998955969623119</v>
+        <v>0.199895596962312</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.14545689344011</v>
+        <v>0.1444237010801155</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2677037536154865</v>
+        <v>0.2637064939418465</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>66</v>
@@ -10726,19 +10726,19 @@
         <v>24783</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>19886</v>
+        <v>19615</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>30672</v>
+        <v>30808</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1943301149997972</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1559271352987403</v>
+        <v>0.1538084042579716</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2405035781665353</v>
+        <v>0.2415696215318028</v>
       </c>
     </row>
     <row r="25">
@@ -10755,19 +10755,19 @@
         <v>7473</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4607</v>
+        <v>4563</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11294</v>
+        <v>11414</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1240836326898558</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07650071729059472</v>
+        <v>0.07576336990148283</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.187527224371712</v>
+        <v>0.1895269442195354</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -10776,19 +10776,19 @@
         <v>9184</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6158</v>
+        <v>6255</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12840</v>
+        <v>12886</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1364503943948429</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09148401705392982</v>
+        <v>0.0929321569405301</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1907601527265174</v>
+        <v>0.1914421578034846</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>45</v>
@@ -10797,19 +10797,19 @@
         <v>16657</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>12362</v>
+        <v>12483</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>21773</v>
+        <v>21554</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1306105257528266</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09692992543424422</v>
+        <v>0.09787967318583944</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1707220493397896</v>
+        <v>0.1690119229750381</v>
       </c>
     </row>
     <row r="26">
@@ -10826,19 +10826,19 @@
         <v>41422</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>36327</v>
+        <v>36635</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>45679</v>
+        <v>45460</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6878064787982986</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6032037431052283</v>
+        <v>0.6083190836176511</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7584776573915331</v>
+        <v>0.7548548173255646</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>110</v>
@@ -10847,19 +10847,19 @@
         <v>44670</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>39805</v>
+        <v>39775</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>49219</v>
+        <v>49224</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6636540086428453</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5913703311644793</v>
+        <v>0.5909330099234262</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7312404135370357</v>
+        <v>0.731311390393422</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>201</v>
@@ -10868,19 +10868,19 @@
         <v>86092</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>79030</v>
+        <v>79164</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>92466</v>
+        <v>92467</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6750593592473761</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6196844315583485</v>
+        <v>0.620739499745154</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7250414303633806</v>
+        <v>0.7250519142600562</v>
       </c>
     </row>
     <row r="27">
@@ -10972,19 +10972,19 @@
         <v>4792</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1895</v>
+        <v>1838</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11440</v>
+        <v>10383</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03183548139697372</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01258916222889775</v>
+        <v>0.01220940408285381</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07599870580416196</v>
+        <v>0.0689734387710534</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>21</v>
@@ -10993,19 +10993,19 @@
         <v>16347</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10459</v>
+        <v>10164</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>24006</v>
+        <v>24398</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.09921417003932483</v>
+        <v>0.09921417003932484</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06347899163987898</v>
+        <v>0.06168926409492276</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.145692273618931</v>
+        <v>0.148074293752948</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>26</v>
@@ -11014,19 +11014,19 @@
         <v>21140</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>14130</v>
+        <v>14360</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>30227</v>
+        <v>30816</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06704617479758049</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0448129376759019</v>
+        <v>0.04554409040887906</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09586721809263156</v>
+        <v>0.09773503242021896</v>
       </c>
     </row>
     <row r="29">
@@ -11043,19 +11043,19 @@
         <v>8397</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4106</v>
+        <v>4283</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15981</v>
+        <v>15111</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05578374553660374</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02727952423153829</v>
+        <v>0.02845234720960672</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1061632029992743</v>
+        <v>0.1003834320286646</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>23</v>
@@ -11064,19 +11064,19 @@
         <v>15345</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10080</v>
+        <v>9942</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>22440</v>
+        <v>22050</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09312869601717579</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06117410290460812</v>
+        <v>0.06033663243358636</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1361898436069686</v>
+        <v>0.1338206997438561</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>32</v>
@@ -11085,19 +11085,19 @@
         <v>23742</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>16767</v>
+        <v>16546</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>33766</v>
+        <v>32533</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07529943555562488</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05317861635668887</v>
+        <v>0.05247592445738396</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1070925106524562</v>
+        <v>0.1031825225626393</v>
       </c>
     </row>
     <row r="30">
@@ -11114,19 +11114,19 @@
         <v>137342</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>128664</v>
+        <v>129173</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>142664</v>
+        <v>143003</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9123807730664226</v>
+        <v>0.9123807730664225</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8547367503908557</v>
+        <v>0.8581188613095515</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9477351307241857</v>
+        <v>0.9499919779853291</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>198</v>
@@ -11135,19 +11135,19 @@
         <v>133077</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>123257</v>
+        <v>123359</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>140701</v>
+        <v>141114</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8076571339434995</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7480595845105756</v>
+        <v>0.7486814412934889</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8539310425079529</v>
+        <v>0.8564344218660901</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>351</v>
@@ -11156,19 +11156,19 @@
         <v>270418</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>258792</v>
+        <v>257717</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>280204</v>
+        <v>280248</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8576543896467947</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.820781325733314</v>
+        <v>0.8173704550033194</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.888690291461395</v>
+        <v>0.888830403302587</v>
       </c>
     </row>
     <row r="31">
@@ -11260,19 +11260,19 @@
         <v>5335</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2614</v>
+        <v>2622</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10036</v>
+        <v>9873</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0327507903251059</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01604730202785164</v>
+        <v>0.01609390510550131</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06160703471840607</v>
+        <v>0.06060934643953059</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>7</v>
@@ -11281,19 +11281,19 @@
         <v>4771</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2058</v>
+        <v>1786</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>9426</v>
+        <v>9398</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.02242478059768204</v>
+        <v>0.02242478059768203</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00967260629955647</v>
+        <v>0.00839253353927759</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04430178546737544</v>
+        <v>0.04416943104570398</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>15</v>
@@ -11302,19 +11302,19 @@
         <v>10106</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5566</v>
+        <v>5776</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>16801</v>
+        <v>15720</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02690246917450494</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01481647025798042</v>
+        <v>0.01537641774666217</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0447228078471336</v>
+        <v>0.04184537419568372</v>
       </c>
     </row>
     <row r="33">
@@ -11331,19 +11331,19 @@
         <v>9978</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>5654</v>
+        <v>5860</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>16425</v>
+        <v>16125</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.06125115795386321</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.03470581763005606</v>
+        <v>0.03597041265993568</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1008269710573498</v>
+        <v>0.0989863950162314</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>50</v>
@@ -11352,19 +11352,19 @@
         <v>32733</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>24707</v>
+        <v>24980</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>42473</v>
+        <v>42438</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1538467440620236</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1161236126404443</v>
+        <v>0.117406899239876</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1996254064044817</v>
+        <v>0.1994585365096895</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>64</v>
@@ -11373,19 +11373,19 @@
         <v>42711</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>33003</v>
+        <v>34158</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>52938</v>
+        <v>54635</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1136943319371737</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.08785075185627109</v>
+        <v>0.0909248048788132</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1409176248796492</v>
+        <v>0.1454351364653793</v>
       </c>
     </row>
     <row r="34">
@@ -11402,19 +11402,19 @@
         <v>147589</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>140624</v>
+        <v>140586</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>153248</v>
+        <v>152687</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.905998051721031</v>
+        <v>0.9059980517210311</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8632453221431904</v>
+        <v>0.8630081431060264</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9407392738635547</v>
+        <v>0.9372920859389483</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>286</v>
@@ -11423,19 +11423,19 @@
         <v>175261</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>165087</v>
+        <v>165016</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>183645</v>
+        <v>183855</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.8237284753402946</v>
+        <v>0.8237284753402944</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7759073081694142</v>
+        <v>0.7755727910611111</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8631301383282856</v>
+        <v>0.8641191749864072</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>498</v>
@@ -11444,19 +11444,19 @@
         <v>322850</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>311129</v>
+        <v>311327</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>333961</v>
+        <v>332658</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.8594031988883212</v>
+        <v>0.8594031988883213</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8282010857795513</v>
+        <v>0.8287293413584289</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8889780382332449</v>
+        <v>0.8855102107891812</v>
       </c>
     </row>
     <row r="35">
@@ -11548,19 +11548,19 @@
         <v>51003</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>39954</v>
+        <v>41227</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>62880</v>
+        <v>62979</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.07143287543730606</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05595848867626398</v>
+        <v>0.05774157766846725</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.08806705080844758</v>
+        <v>0.08820636211605383</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>150</v>
@@ -11569,19 +11569,19 @@
         <v>80162</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>68322</v>
+        <v>67692</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>93411</v>
+        <v>94935</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0887388651221927</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.07563197938944981</v>
+        <v>0.07493490953921172</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1034063187158106</v>
+        <v>0.1050934078167707</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>236</v>
@@ -11590,19 +11590,19 @@
         <v>131165</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>114133</v>
+        <v>114900</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>150805</v>
+        <v>148719</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.08109889004270597</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0705683459310676</v>
+        <v>0.071042572660166</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.09324225173800528</v>
+        <v>0.09195253663397011</v>
       </c>
     </row>
     <row r="37">
@@ -11619,19 +11619,19 @@
         <v>67234</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>55410</v>
+        <v>55852</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>80186</v>
+        <v>81598</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.09416530857782392</v>
+        <v>0.0941653085778239</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07760574000743936</v>
+        <v>0.07822354128453189</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1123050798491305</v>
+        <v>0.1142825674323233</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>223</v>
@@ -11640,19 +11640,19 @@
         <v>114813</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>101525</v>
+        <v>99471</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>131126</v>
+        <v>129942</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.127097681037664</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1123884528721581</v>
+        <v>0.1101147398036086</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1451563112262185</v>
+        <v>0.1438454691336057</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>325</v>
@@ -11661,19 +11661,19 @@
         <v>182047</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>162585</v>
+        <v>163340</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>201326</v>
+        <v>204739</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1125592172177486</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1005262816172144</v>
+        <v>0.1009930612359504</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1244796610897421</v>
+        <v>0.126589936889138</v>
       </c>
     </row>
     <row r="38">
@@ -11690,19 +11690,19 @@
         <v>595762</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>579618</v>
+        <v>578104</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>611622</v>
+        <v>610206</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.83440181598487</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8117913766691284</v>
+        <v>0.8096700205094733</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8566148004141213</v>
+        <v>0.8546316613335982</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1334</v>
@@ -11711,19 +11711,19 @@
         <v>708369</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>688423</v>
+        <v>690096</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>725671</v>
+        <v>727582</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7841634538401433</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7620836683261977</v>
+        <v>0.7639353473856345</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8033172175383789</v>
+        <v>0.8054331905517013</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2170</v>
@@ -11732,19 +11732,19 @@
         <v>1304131</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1280820</v>
+        <v>1278066</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1328715</v>
+        <v>1329190</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.8063418927395453</v>
+        <v>0.8063418927395454</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7919292788230953</v>
+        <v>0.7902262024933322</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8215425201086569</v>
+        <v>0.8218361023215041</v>
       </c>
     </row>
     <row r="39">
